--- a/nominations.xlsx
+++ b/nominations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakehughey/Library/CloudStorage/GoogleDrive-jakejhughey@gmail.com/My Drive/career/suvita/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakehughey/Library/CloudStorage/GoogleDrive-jakejhughey@gmail.com/My Drive/career/suvita/v02_multiple_nominations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E093739C-43A3-E64F-8562-FFCE64AE3340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D2196E-4E25-5D4E-A45C-3835683776D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21100" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11940" yWindow="500" windowWidth="23900" windowHeight="21900" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="404">
   <si>
     <t>deviceid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2465,9 +2465,6 @@
     <t>district_id</t>
   </si>
   <si>
-    <t>Select the nominee's district.</t>
-  </si>
-  <si>
     <t>search('villages')</t>
   </si>
   <si>
@@ -2480,9 +2477,6 @@
     <t>village_id</t>
   </si>
   <si>
-    <t>Select the nominee's village.</t>
-  </si>
-  <si>
     <t>search('villages', 'matches', 'district_id', ${district_id})</t>
   </si>
   <si>
@@ -2562,6 +2556,48 @@
   </si>
   <si>
     <t>concat(${nominee_name}, ' - ', ${nominee_phone})</t>
+  </si>
+  <si>
+    <t>Select the village.</t>
+  </si>
+  <si>
+    <t>Select the district.</t>
+  </si>
+  <si>
+    <t>n_nominees</t>
+  </si>
+  <si>
+    <t>.&gt;=0 and .&lt;=3</t>
+  </si>
+  <si>
+    <t>repeatintro</t>
+  </si>
+  <si>
+    <t>nom_group</t>
+  </si>
+  <si>
+    <t>Nominee</t>
+  </si>
+  <si>
+    <t>How many people would you like to nominate?</t>
+  </si>
+  <si>
+    <t>${n_nominees}</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>Please enter a number between 0 and 3, inclusive.</t>
+  </si>
+  <si>
+    <t>Now I will ask you a few questions about each person you'd like to nominate.</t>
+  </si>
+  <si>
+    <t>. &gt; 0 and coalesce(pulldata('nominees', 'nominee_phone', 'nominee_phone', ${nominee_phone_new}), 1) = 1</t>
+  </si>
+  <si>
+    <t>That number is invalid or corresponds to an existing nominee.</t>
   </si>
 </sst>
 </file>
@@ -5094,22 +5130,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" style="9" customWidth="1"/>
     <col min="2" max="2" width="19.83203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="30.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" style="10" customWidth="1"/>
     <col min="4" max="4" width="23" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="74.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="92.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.1640625" style="9" bestFit="1" customWidth="1"/>
@@ -5271,7 +5307,7 @@
         <v>38</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D8" s="11"/>
       <c r="F8" s="9" t="s">
@@ -5286,11 +5322,11 @@
         <v>358</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="D9" s="11"/>
       <c r="F9" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>40</v>
@@ -5301,26 +5337,26 @@
         <v>45</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D10" s="11"/>
       <c r="N10" s="79" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>363</v>
-      </c>
       <c r="C11" s="10" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="D11" s="11"/>
       <c r="F11" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>40</v>
@@ -5331,83 +5367,95 @@
         <v>45</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D12" s="11"/>
       <c r="N12" s="79" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>372</v>
+        <v>69</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="F13" s="9" t="s">
-        <v>367</v>
+      <c r="G13" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>400</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N13" s="79"/>
+    </row>
+    <row r="14" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>371</v>
+        <v>394</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>401</v>
       </c>
       <c r="D14" s="11"/>
-      <c r="N14" s="79" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N14" s="79"/>
+    </row>
+    <row r="15" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>369</v>
+        <v>395</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>396</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="N15" s="79" t="s">
-        <v>386</v>
+      <c r="F15" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="N15" s="79"/>
+      <c r="O15" s="9" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>43</v>
+        <v>370</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>382</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="I16" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+      <c r="F16" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="N17" s="79" t="s">
         <v>383</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="I17" s="9" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
@@ -5415,86 +5463,149 @@
         <v>45</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D18" s="11"/>
-      <c r="N18" s="9" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N18" s="79" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="I19" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="N19" s="9" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K19" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>370</v>
+        <v>381</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>374</v>
       </c>
       <c r="D20" s="11"/>
-      <c r="N20" s="9" t="s">
-        <v>391</v>
+      <c r="G20" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>389</v>
-      </c>
       <c r="D21" s="11"/>
-      <c r="N21" s="9">
-        <v>1</v>
-      </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="D22" s="11"/>
-      <c r="N22" s="9">
+      <c r="N22" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="N23" s="9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="N24" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="N25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="N26" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B28" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="D24" s="11"/>
-      <c r="W24" s="9"/>
+      <c r="C28" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="D29" s="11"/>
+      <c r="W29" s="9"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -5551,7 +5662,7 @@
       <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N9 N11 B1:B1048576 N13:N1048576">
+  <conditionalFormatting sqref="N1:N9 N11 B1:B1048576 N16:N1048576">
     <cfRule type="expression" dxfId="164" priority="75" stopIfTrue="1">
       <formula>OR($A1="calculate", $A1="calculate_here")</formula>
     </cfRule>
@@ -5571,7 +5682,7 @@
       <formula>OR($A1="audio", $A1="video")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:V9 A11:V11 A10:M10 O10:V10 A12:M12 O12:V12 A13:V1048576">
+  <conditionalFormatting sqref="A1:V9 A11:V11 A10:M10 O10:V10 A12:M15 O12:V15 A16:V1048576">
     <cfRule type="expression" dxfId="160" priority="62" stopIfTrue="1">
       <formula>$A1="enumerator"</formula>
     </cfRule>
@@ -5694,12 +5805,12 @@
       <formula>$A10="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N12">
+  <conditionalFormatting sqref="N12:N15">
     <cfRule type="expression" dxfId="121" priority="6" stopIfTrue="1">
       <formula>OR($A12="calculate", $A12="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N12">
+  <conditionalFormatting sqref="N12:N15">
     <cfRule type="expression" dxfId="120" priority="1" stopIfTrue="1">
       <formula>$A12="enumerator"</formula>
     </cfRule>
@@ -5807,33 +5918,33 @@
         <v>358</v>
       </c>
       <c r="C2" s="77" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D2" s="77"/>
       <c r="E2" s="77"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -5929,7 +6040,7 @@
       </c>
       <c r="C2" s="16" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2304120811</v>
+        <v>2304181045</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="18"/>

--- a/nominations.xlsx
+++ b/nominations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakehughey/Library/CloudStorage/GoogleDrive-jakejhughey@gmail.com/My Drive/career/suvita/v02_multiple_nominations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakehughey/Library/CloudStorage/GoogleDrive-jakejhughey@gmail.com/My Drive/career/suvita/v03_update_phone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D2196E-4E25-5D4E-A45C-3835683776D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42452D1B-C3C9-B348-A339-5DF43FD1E5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11940" yWindow="500" windowWidth="23900" windowHeight="21900" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="412">
   <si>
     <t>deviceid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2510,9 +2510,6 @@
     <t>nominee_phone</t>
   </si>
   <si>
-    <t>Enter the nominee's phone number.</t>
-  </si>
-  <si>
     <t>${nominee_new}=1</t>
   </si>
   <si>
@@ -2546,18 +2543,12 @@
     <t>if(${nominee_new}=1, ${nominee_name_new}, pulldata('nominees', 'nominee_name', 'nominee_key', ${nominee_key}))</t>
   </si>
   <si>
-    <t>if(${nominee_new}=1, ${nominee_phone_new}, pulldata('nominees', 'nominee_phone', 'nominee_key', ${nominee_key}))</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
     <t>zero</t>
   </si>
   <si>
-    <t>concat(${nominee_name}, ' - ', ${nominee_phone})</t>
-  </si>
-  <si>
     <t>Select the village.</t>
   </si>
   <si>
@@ -2594,10 +2585,43 @@
     <t>Now I will ask you a few questions about each person you'd like to nominate.</t>
   </si>
   <si>
-    <t>. &gt; 0 and coalesce(pulldata('nominees', 'nominee_phone', 'nominee_phone', ${nominee_phone_new}), 1) = 1</t>
-  </si>
-  <si>
     <t>That number is invalid or corresponds to an existing nominee.</t>
+  </si>
+  <si>
+    <t>. = -1 or (. &gt; 99 and coalesce(pulldata('nominees', 'nominee_phone', 'nominee_phone', ${nominee_phone_new}), 1) = 1)</t>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>update_phone</t>
+  </si>
+  <si>
+    <t>select_one yesno</t>
+  </si>
+  <si>
+    <t>${nominee_new}=0 and pulldata('nominees', 'nominee_phone', 'nominee_key', ${nominee_key_new}) = -1</t>
+  </si>
+  <si>
+    <t>${nominee_new}=1 or ${update_phone}=1</t>
+  </si>
+  <si>
+    <t>if(${nominee_new}=1 or ${update_phone}=1, ${nominee_phone_new}, pulldata('nominees', 'nominee_phone', 'nominee_key', ${nominee_key}))</t>
+  </si>
+  <si>
+    <t>concat(${nominee_name}, ' - ', if(${nominee_phone} = -1, 'Phone number unknown', ${nominee_phone}))</t>
+  </si>
+  <si>
+    <t>Would you like to provide ${nominee_name}'s phone number?</t>
+  </si>
+  <si>
+    <t>Enter ${nominee_name}'s phone number, or enter -1 if the phone number is unknown or cannot be provided.</t>
   </si>
 </sst>
 </file>
@@ -5132,9 +5156,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5145,9 +5169,9 @@
     <col min="4" max="4" width="23" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="74.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="92.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="102.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="91" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" style="9" customWidth="1"/>
@@ -5307,7 +5331,7 @@
         <v>38</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D8" s="11"/>
       <c r="F8" s="9" t="s">
@@ -5322,7 +5346,7 @@
         <v>358</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D9" s="11"/>
       <c r="F9" s="9" t="s">
@@ -5341,7 +5365,7 @@
       </c>
       <c r="D10" s="11"/>
       <c r="N10" s="79" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -5352,7 +5376,7 @@
         <v>362</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D11" s="11"/>
       <c r="F11" s="9" t="s">
@@ -5371,7 +5395,7 @@
       </c>
       <c r="D12" s="11"/>
       <c r="N12" s="79" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="51" x14ac:dyDescent="0.2">
@@ -5379,17 +5403,17 @@
         <v>69</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D13" s="11"/>
       <c r="G13" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>40</v>
@@ -5401,10 +5425,10 @@
         <v>37</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D14" s="11"/>
       <c r="N14" s="79"/>
@@ -5414,18 +5438,18 @@
         <v>138</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D15" s="11"/>
       <c r="F15" s="9" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="N15" s="79"/>
       <c r="O15" s="9" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="17" x14ac:dyDescent="0.2">
@@ -5433,7 +5457,7 @@
         <v>370</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>364</v>
@@ -5455,7 +5479,7 @@
       </c>
       <c r="D17" s="11"/>
       <c r="N17" s="79" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
@@ -5467,61 +5491,74 @@
       </c>
       <c r="D18" s="11"/>
       <c r="N18" s="79" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="N19" s="9" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+    <row r="20" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="I20" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="N20" s="79"/>
+    </row>
+    <row r="21" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B21" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="I21" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="I19" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="68" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="G20" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>371</v>
+      <c r="C22" s="10" t="s">
+        <v>411</v>
       </c>
       <c r="D22" s="11"/>
-      <c r="N22" s="9" t="s">
-        <v>385</v>
+      <c r="G22" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
@@ -5533,7 +5570,7 @@
       </c>
       <c r="D23" s="11"/>
       <c r="N23" s="9" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
@@ -5545,41 +5582,41 @@
       </c>
       <c r="D24" s="11"/>
       <c r="N24" s="9" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D25" s="11"/>
-      <c r="N25" s="9">
-        <v>1</v>
-      </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D26" s="11"/>
       <c r="N26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D27" s="11"/>
+      <c r="N27" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
@@ -5589,7 +5626,7 @@
         <v>46</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="21"/>
@@ -5881,7 +5918,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5950,16 +5987,28 @@
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
+      <c r="A6" s="78" t="s">
+        <v>401</v>
+      </c>
+      <c r="B6" s="78">
+        <v>0</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>403</v>
+      </c>
       <c r="D6" s="78"/>
       <c r="E6" s="78"/>
     </row>
@@ -6040,7 +6089,7 @@
       </c>
       <c r="C2" s="16" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2304181045</v>
+        <v>2304181228</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="18"/>
